--- a/centralidade14.xlsx
+++ b/centralidade14.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,11 +452,11 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>65768</t>
+          <t>657697</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>7.139142610596715e-14</v>
+        <v>6.743380893043208e-11</v>
       </c>
     </row>
     <row r="3">
@@ -465,11 +465,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>65771</t>
+          <t>657682</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4.668257297688416e-13</v>
+        <v>7.139142610596715e-14</v>
       </c>
     </row>
     <row r="4">
@@ -478,11 +478,11 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>65759</t>
+          <t>657690</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3.033675340898074e-13</v>
+        <v>2.370037460191972e-11</v>
       </c>
     </row>
     <row r="5">
@@ -491,11 +491,11 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>65764</t>
+          <t>657595</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>7.485954064973682e-12</v>
+        <v>6.283948653455892e-13</v>
       </c>
     </row>
     <row r="6">
@@ -504,14 +504,53 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>65758</t>
+          <t>657713</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1.421873329714735e-12</v>
+        <v>5.213134296963737e-14</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>657681</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1.267197390420148e-13</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>657667</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>5.314318749079648e-14</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>657594</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>9.839150884797327e-14</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>